--- a/SelectivityModels/models/Regression/OUTPUT/TestSet_EvaluationResults.xlsx
+++ b/SelectivityModels/models/Regression/OUTPUT/TestSet_EvaluationResults.xlsx
@@ -514,40 +514,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7062217800814352</v>
+        <v>0.6852383791832248</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6826556035245746</v>
+        <v>0.7112482189802571</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6704505592753531</v>
+        <v>0.6987791138092088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7239501435326978</v>
+        <v>0.6834756689365358</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6610646583220178</v>
+        <v>0.6820630744605292</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6985939529858629</v>
+        <v>0.6985840732179782</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7378428049311614</v>
+        <v>0.7356947143624979</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6936898299547218</v>
+        <v>0.6150198741026471</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7135382541734983</v>
+        <v>0.6403573002398999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.653350445401581</v>
+        <v>0.6737508267206785</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6941358032182904</v>
+        <v>0.6824211244013457</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02747064821678093</v>
+        <v>0.03430993797778389</v>
       </c>
     </row>
     <row r="3">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
         <v>33</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G3" t="n">
         <v>37</v>
-      </c>
-      <c r="E3" t="n">
-        <v>36</v>
-      </c>
-      <c r="F3" t="n">
-        <v>32</v>
-      </c>
-      <c r="G3" t="n">
-        <v>38</v>
       </c>
       <c r="H3" t="n">
         <v>38</v>
@@ -581,19 +581,19 @@
         <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K3" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M3" t="n">
-        <v>35.1</v>
+        <v>33.9</v>
       </c>
       <c r="N3" t="n">
-        <v>2.923088169119167</v>
+        <v>3.541813722437198</v>
       </c>
     </row>
     <row r="4">
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="n">
         <v>197</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>196</v>
+      </c>
+      <c r="F4" t="n">
+        <v>197</v>
+      </c>
+      <c r="G4" t="n">
         <v>199</v>
-      </c>
-      <c r="E4" t="n">
-        <v>198</v>
-      </c>
-      <c r="F4" t="n">
-        <v>199</v>
-      </c>
-      <c r="G4" t="n">
-        <v>201</v>
       </c>
       <c r="H4" t="n">
         <v>198</v>
@@ -627,19 +627,19 @@
         <v>199</v>
       </c>
       <c r="J4" t="n">
+        <v>195</v>
+      </c>
+      <c r="K4" t="n">
+        <v>198</v>
+      </c>
+      <c r="L4" t="n">
         <v>199</v>
       </c>
-      <c r="K4" t="n">
-        <v>199</v>
-      </c>
-      <c r="L4" t="n">
-        <v>198</v>
-      </c>
       <c r="M4" t="n">
-        <v>198.7</v>
+        <v>197.8</v>
       </c>
       <c r="N4" t="n">
-        <v>1.05934990547138</v>
+        <v>1.549193338482967</v>
       </c>
     </row>
     <row r="5">
@@ -652,40 +652,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
       <c r="M5" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N5" t="n">
-        <v>1.05934990547138</v>
+        <v>1.418136492412176</v>
       </c>
     </row>
     <row r="6">
@@ -698,16 +698,16 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
         <v>35</v>
       </c>
-      <c r="D6" t="n">
-        <v>29</v>
-      </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
         <v>29</v>
@@ -716,22 +716,22 @@
         <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K6" t="n">
+        <v>35</v>
+      </c>
+      <c r="L6" t="n">
         <v>37</v>
       </c>
-      <c r="L6" t="n">
-        <v>31</v>
-      </c>
       <c r="M6" t="n">
-        <v>31.9</v>
+        <v>33.6</v>
       </c>
       <c r="N6" t="n">
-        <v>2.806737924669451</v>
+        <v>3.134042472944842</v>
       </c>
     </row>
     <row r="7">
@@ -744,19 +744,19 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.8470149253731343</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.8582089552238806</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>0.8582089552238806</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8768656716417911</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.8805970149253731</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8731343283582089</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8619402985074627</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8917910447761194</v>
       </c>
       <c r="H7" t="n">
         <v>0.8805970149253731</v>
@@ -765,19 +765,19 @@
         <v>0.8768656716417911</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8805970149253731</v>
+        <v>0.8507462686567164</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8507462686567164</v>
+        <v>0.8619402985074627</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8694029850746269</v>
+        <v>0.8544776119402985</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8723880597014924</v>
+        <v>0.8645522388059701</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01241291039788521</v>
+        <v>0.01293173505529357</v>
       </c>
     </row>
     <row r="8">
@@ -790,40 +790,40 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.925</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0.95</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="K8" t="n">
-        <v>0.90625</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8974358974358975</v>
+        <v>0.9375</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9379983825514012</v>
+        <v>0.9266921953514512</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02899448035199118</v>
+        <v>0.03533385622964175</v>
       </c>
     </row>
     <row r="9">
@@ -836,40 +836,40 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.4852941176470588</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5507246376811594</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.5606060606060606</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4776119402985075</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5671641791044776</v>
       </c>
       <c r="H9" t="n">
         <v>0.5588235294117647</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5373134328358209</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5522388059701493</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5238160800276691</v>
+        <v>0.501954364425258</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04251452812285281</v>
+        <v>0.0494578618219987</v>
       </c>
     </row>
     <row r="10">
@@ -882,40 +882,40 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0.9901</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.985</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9899</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.9851</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0.99</v>
       </c>
       <c r="I10" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9701</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.99</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.99</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.9851</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9802</v>
-      </c>
       <c r="M10" t="n">
-        <v>0.9885400000000001</v>
+        <v>0.98652</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005246628547087283</v>
+        <v>0.007062703291076152</v>
       </c>
     </row>
     <row r="11">
@@ -928,40 +928,40 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.5684210526315789</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.6346153846153846</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>0.6415094339622641</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6972477064220184</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.6981132075471698</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.679245283018868</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.6336633663366337</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.7238095238095238</v>
       </c>
       <c r="H11" t="n">
         <v>0.7037037037037037</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6857142857142856</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.6407766990291262</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6715481363653285</v>
+        <v>0.64988035891201</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04029555427782897</v>
+        <v>0.0452582819195947</v>
       </c>
     </row>
     <row r="12">
@@ -974,40 +974,40 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0.823640836276904</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.8416464685121401</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>0.84309038397307</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8646667934418534</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.8695631102932028</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8596071856601154</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.8446227381358826</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.880488343829411</v>
       </c>
       <c r="H12" t="n">
         <v>0.8690245553127405</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8640039774610541</v>
+        <v>0.8631169640692792</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8687143483984204</v>
+        <v>0.8358929354980255</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8306482683034365</v>
+        <v>0.8450848740668503</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8567025660560308</v>
+        <v>0.8345815130712156</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8585021561962434</v>
+        <v>0.8490308434515279</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01530456751241643</v>
+        <v>0.01631513675637094</v>
       </c>
     </row>
     <row r="13">
@@ -1020,19 +1020,19 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>0.7377252655448143</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.7733262108262108</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
+        <v>0.7765686704695041</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8099821670283395</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.8118473014480035</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8000877577885037</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7743029475361329</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8282620704894486</v>
       </c>
       <c r="H13" t="n">
         <v>0.8144686742817584</v>
@@ -1041,19 +1041,19 @@
         <v>0.8045740802121313</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8118473014480034</v>
+        <v>0.7648091268100043</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7502562668903177</v>
+        <v>0.7776631763044013</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7927300850734726</v>
+        <v>0.7584078774010125</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7961702695993982</v>
+        <v>0.7829372550326179</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02371634694038452</v>
+        <v>0.02617206099834776</v>
       </c>
     </row>
     <row r="14">
@@ -1066,40 +1066,40 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0.6995949594959496</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.7351470588235294</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.770337193212439</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.7728772877287728</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.7597058823529412</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7338308457711443</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7835820895522387</v>
       </c>
       <c r="H14" t="n">
         <v>0.7744117647058824</v>
       </c>
       <c r="I14" t="n">
-        <v>0.763681592039801</v>
+        <v>0.7622058823529412</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7711442786069652</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7122712271227123</v>
+        <v>0.7376470588235294</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7552505250525052</v>
+        <v>0.7189054726368159</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7561902551756493</v>
+        <v>0.7442469961361949</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02242374498953507</v>
+        <v>0.02512133849945745</v>
       </c>
     </row>
     <row r="15">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>0.553642305261253</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.6001278176904674</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>0.5987630269742745</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.663421375583387</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.6598536429820629</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.6479261676694662</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.6084429159481503</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.7040256912308268</v>
       </c>
       <c r="H15" t="n">
         <v>0.6702005152565572</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6546203795655057</v>
+        <v>0.6615078897344486</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6659104433374572</v>
+        <v>0.5681621213796654</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5640762156801283</v>
+        <v>0.6137901446655907</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6237265739003282</v>
+        <v>0.5846434037980073</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6398910363260949</v>
+        <v>0.6174112243325715</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04078156619675547</v>
+        <v>0.04330098911670442</v>
       </c>
     </row>
     <row r="16">
@@ -1158,40 +1158,40 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>0.8368</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.8491</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
+        <v>0.8522</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.8728</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.8609</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.8504</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.8739</v>
       </c>
       <c r="H16" t="n">
         <v>0.8683999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8652</v>
+        <v>0.8615</v>
       </c>
       <c r="J16" t="n">
-        <v>0.869</v>
+        <v>0.8515</v>
       </c>
       <c r="K16" t="n">
+        <v>0.8498</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.8431999999999999</v>
       </c>
-      <c r="L16" t="n">
-        <v>0.8646</v>
-      </c>
       <c r="M16" t="n">
-        <v>0.86175</v>
+        <v>0.8549300000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01064688269453136</v>
+        <v>0.01141159741471613</v>
       </c>
     </row>
     <row r="17">
@@ -1204,40 +1204,40 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0.6995949594959496</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.7351470588235295</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.770337193212439</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.7728772877287728</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7597058823529411</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.7338308457711443</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7835820895522387</v>
       </c>
       <c r="H17" t="n">
         <v>0.7744117647058824</v>
       </c>
       <c r="I17" t="n">
-        <v>0.763681592039801</v>
+        <v>0.7622058823529412</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7711442786069652</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7122712271227123</v>
+        <v>0.7376470588235294</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7552505250525052</v>
+        <v>0.7189054726368159</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7561902551756493</v>
+        <v>0.7442469961361949</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02242374498953506</v>
+        <v>0.02512133849945744</v>
       </c>
     </row>
   </sheetData>
@@ -1336,40 +1336,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6888317206192333</v>
+        <v>0.7089448261642654</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6640045041652713</v>
+        <v>0.6737664759678096</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6716127597369985</v>
+        <v>0.6710303034882713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7139275511623296</v>
+        <v>0.7117224187133655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6336864073439815</v>
+        <v>0.6850580779754775</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6821602012632491</v>
+        <v>0.6782246482840586</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7067440559735081</v>
+        <v>0.7151776735811586</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6867084283324005</v>
+        <v>0.5904486176126417</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6707441599186816</v>
+        <v>0.6178810396851495</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6655446218134764</v>
+        <v>0.6293643418408803</v>
       </c>
       <c r="M2" t="n">
-        <v>0.678396441032913</v>
+        <v>0.6681618423313077</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0229348281938297</v>
+        <v>0.04251848912673924</v>
       </c>
     </row>
     <row r="3">
@@ -1382,40 +1382,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
       </c>
       <c r="F3" t="n">
+        <v>41</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
+        <v>44</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38</v>
+      </c>
+      <c r="J3" t="n">
         <v>34</v>
       </c>
-      <c r="G3" t="n">
-        <v>38</v>
-      </c>
-      <c r="H3" t="n">
-        <v>41</v>
-      </c>
-      <c r="I3" t="n">
-        <v>43</v>
-      </c>
-      <c r="J3" t="n">
-        <v>42</v>
-      </c>
       <c r="K3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M3" t="n">
-        <v>37.4</v>
+        <v>36.4</v>
       </c>
       <c r="N3" t="n">
-        <v>4.376706016578627</v>
+        <v>4.168666186896929</v>
       </c>
     </row>
     <row r="4">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D4" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E4" t="n">
         <v>197</v>
       </c>
       <c r="F4" t="n">
+        <v>197</v>
+      </c>
+      <c r="G4" t="n">
+        <v>197</v>
+      </c>
+      <c r="H4" t="n">
+        <v>195</v>
+      </c>
+      <c r="I4" t="n">
         <v>199</v>
       </c>
-      <c r="G4" t="n">
-        <v>199</v>
-      </c>
-      <c r="H4" t="n">
-        <v>198</v>
-      </c>
-      <c r="I4" t="n">
-        <v>198</v>
-      </c>
       <c r="J4" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K4" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L4" t="n">
         <v>199</v>
       </c>
       <c r="M4" t="n">
-        <v>197.9</v>
+        <v>196.9</v>
       </c>
       <c r="N4" t="n">
-        <v>1.197218999737865</v>
+        <v>2.282785822435191</v>
       </c>
     </row>
     <row r="5">
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -1486,28 +1486,28 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.286683937707919</v>
+        <v>2.11869981094276</v>
       </c>
     </row>
     <row r="6">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>32</v>
       </c>
       <c r="F6" t="n">
+        <v>28</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>24</v>
+      </c>
+      <c r="I6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" t="n">
         <v>33</v>
       </c>
-      <c r="G6" t="n">
-        <v>29</v>
-      </c>
-      <c r="H6" t="n">
-        <v>27</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>25</v>
-      </c>
       <c r="K6" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M6" t="n">
-        <v>29.6</v>
+        <v>31.1</v>
       </c>
       <c r="N6" t="n">
-        <v>4.477102237434884</v>
+        <v>4.040077006966849</v>
       </c>
     </row>
     <row r="7">
@@ -1566,16 +1566,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8544776119402985</v>
+        <v>0.8768656716417911</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8955223880597015</v>
+        <v>0.8470149253731343</v>
       </c>
       <c r="E7" t="n">
         <v>0.8694029850746269</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8694029850746269</v>
+        <v>0.8880597014925373</v>
       </c>
       <c r="G7" t="n">
         <v>0.8843283582089553</v>
@@ -1584,22 +1584,22 @@
         <v>0.8917910447761194</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8992537313432836</v>
+        <v>0.8843283582089553</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8843283582089553</v>
+        <v>0.8507462686567164</v>
       </c>
       <c r="K7" t="n">
+        <v>0.8507462686567164</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.8619402985074627</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.8694029850746269</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.8779850746268656</v>
+        <v>0.8705223880597014</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01513636112097145</v>
+        <v>0.01696747186844276</v>
       </c>
     </row>
     <row r="8">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E8" t="n">
         <v>0.9230769230769231</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="G8" t="n">
-        <v>0.95</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9534883720930233</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="J8" t="n">
-        <v>0.875</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8" t="n">
-        <v>0.918918918918919</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9244040576775664</v>
+        <v>0.9114688411833747</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02559034154276621</v>
+        <v>0.05006492226949089</v>
       </c>
     </row>
     <row r="9">
@@ -1658,40 +1658,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4558823529411765</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="E9" t="n">
         <v>0.5294117647058824</v>
       </c>
       <c r="F9" t="n">
+        <v>0.5942028985507246</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.5074626865671642</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.5671641791044776</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.6029411764705882</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6417910447761194</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6268656716417911</v>
-      </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.4776119402985075</v>
       </c>
       <c r="M9" t="n">
-        <v>0.558303402772235</v>
+        <v>0.5391666117216752</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06583342966166805</v>
+        <v>0.06018689485209914</v>
       </c>
     </row>
     <row r="10">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9802</v>
+        <v>0.97</v>
       </c>
       <c r="E10" t="n">
         <v>0.985</v>
       </c>
       <c r="F10" t="n">
+        <v>0.9899</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9752</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9651999999999999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.99</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9851</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9701</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9802</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9851</v>
-      </c>
       <c r="M10" t="n">
-        <v>0.9845699999999999</v>
+        <v>0.98203</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006379315532772056</v>
+        <v>0.01053502623526767</v>
       </c>
     </row>
     <row r="11">
@@ -1750,40 +1750,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6138613861386139</v>
+        <v>0.6732673267326732</v>
       </c>
       <c r="D11" t="n">
-        <v>0.75</v>
+        <v>0.616822429906542</v>
       </c>
       <c r="E11" t="n">
         <v>0.6728971962616822</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6601941747572816</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="G11" t="n">
+        <v>0.7207207207207208</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7521367521367522</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.7102803738317757</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.7387387387387387</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.7610619469026548</v>
-      </c>
       <c r="J11" t="n">
-        <v>0.7304347826086957</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6407766990291263</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6601941747572816</v>
+        <v>0.6336633663366337</v>
       </c>
       <c r="M11" t="n">
-        <v>0.693843947302585</v>
+        <v>0.6756945268083882</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05078612350049759</v>
+        <v>0.05083621361666045</v>
       </c>
     </row>
     <row r="12">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.83511768572637</v>
+        <v>0.8623563643034402</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8886581244719797</v>
+        <v>0.8314541273112901</v>
       </c>
       <c r="E12" t="n">
         <v>0.8561193769730525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8544249871073343</v>
+        <v>0.8784987629239248</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8733742892621397</v>
+        <v>0.8762442161213013</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8827879679503911</v>
+        <v>0.8854582725561958</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8923931463001318</v>
+        <v>0.8725628767475608</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8773830424455232</v>
+        <v>0.8373139494634821</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8471279558172276</v>
+        <v>0.8333120721180423</v>
       </c>
       <c r="L12" t="n">
-        <v>0.855391309556837</v>
+        <v>0.8446227381358826</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8662777885610987</v>
+        <v>0.8577942756654174</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01923258262838644</v>
+        <v>0.02017208523296177</v>
       </c>
     </row>
     <row r="13">
@@ -1842,40 +1842,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7621031068624105</v>
+        <v>0.798702628883578</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8419811320754718</v>
+        <v>0.7606256671677232</v>
       </c>
       <c r="E13" t="n">
         <v>0.7956560573383004</v>
       </c>
       <c r="F13" t="n">
-        <v>0.78968138299065</v>
+        <v>0.8306940700808625</v>
       </c>
       <c r="G13" t="n">
+        <v>0.8238897721250662</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8414621708177794</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.8190096507853517</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.8352517223105458</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.8486160798343061</v>
-      </c>
       <c r="J13" t="n">
-        <v>0.8284002891665807</v>
+        <v>0.7680858428521979</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7776631763044014</v>
+        <v>0.7613960113960114</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7896813829906499</v>
+        <v>0.7743029475361329</v>
       </c>
       <c r="M13" t="n">
-        <v>0.808804398065867</v>
+        <v>0.7973824818983004</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02968036639386615</v>
+        <v>0.03030368979305613</v>
       </c>
     </row>
     <row r="14">
@@ -1888,40 +1888,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7229411764705882</v>
+        <v>0.7551005100510051</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8082808280828082</v>
+        <v>0.7276470588235294</v>
       </c>
       <c r="E14" t="n">
         <v>0.7572058823529412</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7487562189054726</v>
+        <v>0.7920763236472216</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7786069651741294</v>
+        <v>0.7906540654065406</v>
       </c>
       <c r="H14" t="n">
-        <v>0.796470588235294</v>
+        <v>0.8110294117647059</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8134328358208955</v>
+        <v>0.7769117647058823</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7985074626865671</v>
+        <v>0.736318407960199</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7400990099009901</v>
+        <v>0.7252941176470589</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7501500150015001</v>
+        <v>0.7338308457711443</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7714450982631187</v>
+        <v>0.7606068388130228</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03168597468032529</v>
+        <v>0.03052058318975056</v>
       </c>
     </row>
     <row r="15">
@@ -1934,40 +1934,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5904713596728027</v>
+        <v>0.6523444808788945</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7044801522595723</v>
+        <v>0.5618384390403661</v>
       </c>
       <c r="E15" t="n">
         <v>0.6347903293808788</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6317483696490862</v>
+        <v>0.6959081872339915</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6771111667693442</v>
+        <v>0.6700317176231023</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7030004096182254</v>
+        <v>0.7002946546972377</v>
       </c>
       <c r="I15" t="n">
-        <v>0.719870728700614</v>
+        <v>0.6834249229412206</v>
       </c>
       <c r="J15" t="n">
-        <v>0.674199862463242</v>
+        <v>0.5685361980960748</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5997374452619744</v>
+        <v>0.5749817490317674</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6248436051073678</v>
+        <v>0.6084429159481503</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6560253428883108</v>
+        <v>0.6350593594871683</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04580627564901144</v>
+        <v>0.05366951698133401</v>
       </c>
     </row>
     <row r="16">
@@ -1980,40 +1980,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8426</v>
+        <v>0.8627</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8919</v>
+        <v>0.8472</v>
       </c>
       <c r="E16" t="n">
         <v>0.8603</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8578</v>
+        <v>0.8756</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8728</v>
+        <v>0.8834</v>
       </c>
       <c r="H16" t="n">
-        <v>0.88</v>
+        <v>0.8904</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8919</v>
+        <v>0.869</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8864</v>
+        <v>0.8546</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8571</v>
+        <v>0.8448</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8615</v>
+        <v>0.8504</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8702299999999999</v>
+        <v>0.8638399999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01689128966854416</v>
+        <v>0.015535636453007</v>
       </c>
     </row>
     <row r="17">
@@ -2026,40 +2026,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7229411764705882</v>
+        <v>0.7551005100510051</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8082808280828082</v>
+        <v>0.7276470588235294</v>
       </c>
       <c r="E17" t="n">
         <v>0.7572058823529412</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7487562189054727</v>
+        <v>0.7920763236472216</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7786069651741293</v>
+        <v>0.7906540654065406</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7964705882352942</v>
+        <v>0.8110294117647058</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8134328358208954</v>
+        <v>0.7769117647058823</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7985074626865672</v>
+        <v>0.7363184079601991</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7400990099009901</v>
+        <v>0.7252941176470589</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7501500150015001</v>
+        <v>0.7338308457711443</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7714450982631187</v>
+        <v>0.7606068388130228</v>
       </c>
       <c r="N17" t="n">
-        <v>0.03168597468032529</v>
+        <v>0.03052058318975053</v>
       </c>
     </row>
   </sheetData>
@@ -2158,40 +2158,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7394812023563473</v>
+        <v>0.6891256766236433</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7103316399612618</v>
+        <v>0.712881830423074</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6903327740722747</v>
+        <v>0.7084246903153857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7556486986132603</v>
+        <v>0.7278592118411789</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6865524199180757</v>
+        <v>0.7040494187519308</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7105463835259533</v>
+        <v>0.6588955487672532</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7450501359335651</v>
+        <v>0.7282722592261918</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7235872830116861</v>
+        <v>0.6138566935602968</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7067558906564462</v>
+        <v>0.6605811463944747</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6889914933368393</v>
+        <v>0.6723812631404169</v>
       </c>
       <c r="M2" t="n">
-        <v>0.715727792138571</v>
+        <v>0.6876327739043846</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02455577357612042</v>
+        <v>0.0362773651147924</v>
       </c>
     </row>
     <row r="3">
@@ -2204,40 +2204,40 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41</v>
+      </c>
+      <c r="E3" t="n">
         <v>39</v>
       </c>
-      <c r="D3" t="n">
-        <v>42</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>41</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>36</v>
+      </c>
+      <c r="I3" t="n">
         <v>37</v>
       </c>
-      <c r="F3" t="n">
-        <v>36</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
+        <v>33</v>
+      </c>
+      <c r="K3" t="n">
         <v>40</v>
       </c>
-      <c r="H3" t="n">
-        <v>44</v>
-      </c>
-      <c r="I3" t="n">
-        <v>46</v>
-      </c>
-      <c r="J3" t="n">
-        <v>47</v>
-      </c>
-      <c r="K3" t="n">
-        <v>36</v>
-      </c>
       <c r="L3" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M3" t="n">
-        <v>40.6</v>
+        <v>37.1</v>
       </c>
       <c r="N3" t="n">
-        <v>4.005551702879947</v>
+        <v>3.281259920619924</v>
       </c>
     </row>
     <row r="4">
@@ -2250,16 +2250,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D4" t="n">
+        <v>194</v>
+      </c>
+      <c r="E4" t="n">
+        <v>195</v>
+      </c>
+      <c r="F4" t="n">
         <v>197</v>
-      </c>
-      <c r="E4" t="n">
-        <v>198</v>
-      </c>
-      <c r="F4" t="n">
-        <v>199</v>
       </c>
       <c r="G4" t="n">
         <v>199</v>
@@ -2271,19 +2271,19 @@
         <v>198</v>
       </c>
       <c r="J4" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K4" t="n">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L4" t="n">
         <v>199</v>
       </c>
       <c r="M4" t="n">
-        <v>198.1</v>
+        <v>197.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8755950357709131</v>
+        <v>2.162817093001111</v>
       </c>
     </row>
     <row r="5">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
         <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9944289260117531</v>
+        <v>1.619327706865483</v>
       </c>
     </row>
     <row r="6">
@@ -2342,40 +2342,40 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E6" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
-        <v>24</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>28</v>
+      </c>
+      <c r="G6" t="n">
+        <v>28</v>
+      </c>
+      <c r="H6" t="n">
+        <v>32</v>
+      </c>
+      <c r="I6" t="n">
         <v>31</v>
       </c>
-      <c r="F6" t="n">
-        <v>31</v>
-      </c>
-      <c r="G6" t="n">
-        <v>27</v>
-      </c>
-      <c r="H6" t="n">
-        <v>24</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M6" t="n">
-        <v>26.4</v>
+        <v>30.4</v>
       </c>
       <c r="N6" t="n">
-        <v>4.005551702879947</v>
+        <v>2.716206504995115</v>
       </c>
     </row>
     <row r="7">
@@ -2388,40 +2388,40 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.8694029850746269</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8768656716417911</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8731343283582089</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8880597014925373</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.8843283582089553</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.8917910447761194</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
+        <v>0.8694029850746269</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.8768656716417911</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.8768656716417911</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8917910447761194</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8992537313432836</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9104477611940298</v>
-      </c>
       <c r="J7" t="n">
-        <v>0.9104477611940298</v>
+        <v>0.8619402985074627</v>
       </c>
       <c r="K7" t="n">
         <v>0.8768656716417911</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8880597014925373</v>
+        <v>0.8694029850746269</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8906716417910449</v>
+        <v>0.8746268656716418</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01281154903663489</v>
+        <v>0.007707429544691389</v>
       </c>
     </row>
     <row r="8">
@@ -2434,40 +2434,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="E8" t="n">
+        <v>0.8863636363636364</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.926829268292683</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.9487179487179487</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9523809523809523</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9361702127659575</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9387755102040817</v>
-      </c>
       <c r="J8" t="n">
-        <v>0.9215686274509803</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9341466557692621</v>
+        <v>0.92305135437731</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01823034996871253</v>
+        <v>0.03224620972348306</v>
       </c>
     </row>
     <row r="9">
@@ -2480,40 +2480,40 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6029411764705882</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.5735294117647058</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.5942028985507246</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.5441176470588235</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.5373134328358209</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5970149253731343</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6865671641791045</v>
-      </c>
       <c r="J9" t="n">
-        <v>0.7014925373134329</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6059821214781705</v>
+        <v>0.5493044253274432</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05943576852076442</v>
+        <v>0.04377395296682465</v>
       </c>
     </row>
     <row r="10">
@@ -2526,40 +2526,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9752</v>
+        <v>0.97</v>
       </c>
       <c r="E10" t="n">
-        <v>0.99</v>
+        <v>0.975</v>
       </c>
       <c r="F10" t="n">
-        <v>0.99</v>
+        <v>0.9899</v>
       </c>
       <c r="G10" t="n">
-        <v>0.99</v>
+        <v>0.9851</v>
       </c>
       <c r="H10" t="n">
         <v>0.985</v>
       </c>
       <c r="I10" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.9851</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.9801</v>
-      </c>
       <c r="K10" t="n">
-        <v>0.9851</v>
+        <v>0.975</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9851</v>
+        <v>0.99</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9855599999999999</v>
+        <v>0.9840100000000002</v>
       </c>
       <c r="N10" t="n">
-        <v>0.004909672992052424</v>
+        <v>0.00809134654361615</v>
       </c>
     </row>
     <row r="11">
@@ -2572,40 +2572,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7155963302752294</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7433628318584069</v>
+        <v>0.7130434782608696</v>
       </c>
       <c r="E11" t="n">
+        <v>0.6964285714285713</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7102803738317758</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6728971962616822</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.6915887850467289</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.6857142857142856</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.7339449541284403</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.7931034482758622</v>
-      </c>
       <c r="J11" t="n">
-        <v>0.7966101694915254</v>
+        <v>0.6407766990291262</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6857142857142856</v>
+        <v>0.7079646017699115</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7222222222222223</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7333074704031335</v>
+        <v>0.6871781383993451</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04137872345170247</v>
+        <v>0.03073980047224931</v>
       </c>
     </row>
     <row r="12">
@@ -2618,40 +2618,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8736591199086963</v>
+        <v>0.8525678244930951</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8851240564890355</v>
+        <v>0.8686940182902486</v>
       </c>
       <c r="E12" t="n">
+        <v>0.8631321157018143</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8784987629239248</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8741857017767187</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8561193769730525</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.8643411268603067</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.8640039774610541</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.8825494703822272</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.8925678331465671</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.9054187192118226</v>
-      </c>
       <c r="J12" t="n">
-        <v>0.9060903414159435</v>
+        <v>0.846106414942039</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8648909908528291</v>
+        <v>0.8676819255258259</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8787604035895291</v>
+        <v>0.8544249871073343</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8817406039318012</v>
+        <v>0.8625752254594359</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01584061210693893</v>
+        <v>0.01019140656689385</v>
       </c>
     </row>
     <row r="13">
@@ -2664,40 +2664,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8214983993296523</v>
+        <v>0.7831865566419343</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8374024561183289</v>
+        <v>0.8173293400805535</v>
       </c>
       <c r="E13" t="n">
+        <v>0.8081199460916442</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8306940700808625</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8190096507853518</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.7956560573383004</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.8073328540618261</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.8045740802121313</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8330146316309649</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.8505421873386347</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.8679802955665026</v>
-      </c>
       <c r="J13" t="n">
-        <v>0.8695969507744707</v>
+        <v>0.7776631763044014</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8045740802121313</v>
+        <v>0.8149752086863742</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8260643821391486</v>
+        <v>0.78968138299065</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8322580317383791</v>
+        <v>0.8043648243061898</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02435802562413623</v>
+        <v>0.0172053360266807</v>
       </c>
     </row>
     <row r="14">
@@ -2710,40 +2710,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7817647058823529</v>
+        <v>0.73994899489949</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8058055805580557</v>
+        <v>0.786470588235294</v>
       </c>
       <c r="E14" t="n">
+        <v>0.7742647058823529</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7920763236472216</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7804530453045304</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7572058823529412</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.7670588235294118</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.763681592039801</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7935323383084577</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8160294117647059</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.835820895522388</v>
-      </c>
       <c r="J14" t="n">
-        <v>0.8407960199004976</v>
+        <v>0.7388059701492538</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7653015301530153</v>
+        <v>0.7816176470588235</v>
       </c>
       <c r="L14" t="n">
-        <v>0.788028802880288</v>
+        <v>0.7487562189054726</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7957819700538974</v>
+        <v>0.7666658199964791</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0282567173334616</v>
+        <v>0.01946412364008854</v>
       </c>
     </row>
     <row r="15">
@@ -2756,40 +2756,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6812102670484128</v>
+        <v>0.6292245838202768</v>
       </c>
       <c r="D15" t="n">
-        <v>0.692911850354488</v>
+        <v>0.6555931752125492</v>
       </c>
       <c r="E15" t="n">
+        <v>0.6443458353840553</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6959081872339915</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6713252022618033</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6347903293808788</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.6591076261610497</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.6546203795655057</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.699266165625865</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.7232390829218523</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.7524073748322678</v>
-      </c>
       <c r="J15" t="n">
-        <v>0.7518738576131742</v>
+        <v>0.6064784348631228</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6482870678476228</v>
+        <v>0.65569312041196</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6827075453840831</v>
+        <v>0.6317483696490862</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6945631217354321</v>
+        <v>0.6484214864378773</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03769832818717866</v>
+        <v>0.0249582388021575</v>
       </c>
     </row>
     <row r="16">
@@ -2802,40 +2802,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8722</v>
+        <v>0.8552999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8914</v>
+        <v>0.8778</v>
       </c>
       <c r="E16" t="n">
+        <v>0.8705000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8756</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8767</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8603</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.8646</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.8652</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.8804999999999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.8914</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.9041</v>
-      </c>
       <c r="J16" t="n">
-        <v>0.9078000000000001</v>
+        <v>0.8534</v>
       </c>
       <c r="K16" t="n">
-        <v>0.869</v>
+        <v>0.8744</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8804999999999999</v>
+        <v>0.8578</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8826699999999998</v>
+        <v>0.86664</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01556642041204222</v>
+        <v>0.009472439554365672</v>
       </c>
     </row>
     <row r="17">
@@ -2848,40 +2848,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7817647058823528</v>
+        <v>0.73994899489949</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8058055805580557</v>
+        <v>0.7864705882352941</v>
       </c>
       <c r="E17" t="n">
+        <v>0.774264705882353</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7920763236472216</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7804530453045304</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7572058823529412</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.7670588235294117</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.763681592039801</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7935323383084577</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.8160294117647059</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.835820895522388</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.8407960199004975</v>
+        <v>0.7388059701492536</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7653015301530153</v>
+        <v>0.7816176470588235</v>
       </c>
       <c r="L17" t="n">
-        <v>0.788028802880288</v>
+        <v>0.7487562189054727</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7957819700538974</v>
+        <v>0.7666658199964791</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0282567173334616</v>
+        <v>0.01946412364008857</v>
       </c>
     </row>
   </sheetData>
@@ -2980,40 +2980,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7493034940881191</v>
+        <v>0.6985709050840814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7046670002919192</v>
+        <v>0.677844506854371</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6628346559998568</v>
+        <v>0.679704501025804</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7678218207753412</v>
+        <v>0.719100965744951</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5754074126120226</v>
+        <v>0.7135435145961746</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6913814935079385</v>
+        <v>0.6858452718640304</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7555535403798216</v>
+        <v>0.7241004389220085</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7395684200565962</v>
+        <v>0.6306826460624286</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6959338157726374</v>
+        <v>0.7130090049918582</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6606710011166863</v>
+        <v>0.7452007790368944</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7003142654600938</v>
+        <v>0.6987602534182602</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05797072169944079</v>
+        <v>0.0320349585257472</v>
       </c>
     </row>
     <row r="3">
@@ -3026,40 +3026,40 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>44</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48</v>
+      </c>
+      <c r="I3" t="n">
         <v>43</v>
       </c>
-      <c r="D3" t="n">
-        <v>49</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="J3" t="n">
+        <v>43</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47</v>
+      </c>
+      <c r="L3" t="n">
         <v>41</v>
       </c>
-      <c r="F3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G3" t="n">
-        <v>44</v>
-      </c>
-      <c r="H3" t="n">
-        <v>49</v>
-      </c>
-      <c r="I3" t="n">
-        <v>45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>49</v>
-      </c>
-      <c r="K3" t="n">
-        <v>39</v>
-      </c>
-      <c r="L3" t="n">
-        <v>48</v>
-      </c>
       <c r="M3" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>3.917198545446024</v>
+        <v>2.170509412813294</v>
       </c>
     </row>
     <row r="4">
@@ -3072,40 +3072,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D4" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E4" t="n">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F4" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G4" t="n">
         <v>198</v>
       </c>
       <c r="H4" t="n">
+        <v>197</v>
+      </c>
+      <c r="I4" t="n">
+        <v>194</v>
+      </c>
+      <c r="J4" t="n">
         <v>195</v>
-      </c>
-      <c r="I4" t="n">
-        <v>200</v>
-      </c>
-      <c r="J4" t="n">
-        <v>199</v>
       </c>
       <c r="K4" t="n">
         <v>196</v>
       </c>
       <c r="L4" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M4" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="N4" t="n">
-        <v>1.779513042005219</v>
+        <v>1.885618083164127</v>
       </c>
     </row>
     <row r="5">
@@ -3121,37 +3121,37 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>6</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
       <c r="M5" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.715938356831167</v>
+        <v>1.35400640077266</v>
       </c>
     </row>
     <row r="6">
@@ -3164,40 +3164,40 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F6" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
-        <v>17</v>
-      </c>
-      <c r="E6" t="n">
-        <v>27</v>
-      </c>
-      <c r="F6" t="n">
-        <v>27</v>
-      </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K6" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L6" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M6" t="n">
-        <v>22.3</v>
+        <v>22.9</v>
       </c>
       <c r="N6" t="n">
-        <v>4.083843505544474</v>
+        <v>2.330951164939612</v>
       </c>
     </row>
     <row r="7">
@@ -3210,40 +3210,40 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.9029850746268657</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8992537313432836</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.8917910447761194</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
+        <v>0.8843283582089553</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.914179104477612</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
+        <v>0.914179104477612</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8843283582089553</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.8880597014925373</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.8880597014925373</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9029850746268657</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9104477611940298</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.914179104477612</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9253731343283582</v>
-      </c>
       <c r="K7" t="n">
-        <v>0.8768656716417911</v>
+        <v>0.9067164179104478</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9253731343283582</v>
+        <v>0.8917910447761194</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9037313432835822</v>
+        <v>0.8977611940298507</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01685311909050181</v>
+        <v>0.01142655132124961</v>
       </c>
     </row>
     <row r="8">
@@ -3256,40 +3256,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8909090909090909</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="E8" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9215686274509803</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9215686274509803</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.9318181818181818</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.9302325581395349</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9361702127659575</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9074074074074074</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9607843137254902</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.96</v>
-      </c>
       <c r="M8" t="n">
-        <v>0.9277142918018825</v>
+        <v>0.90864237687338</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03406498790462444</v>
+        <v>0.0262399126611958</v>
       </c>
     </row>
     <row r="9">
@@ -3302,40 +3302,40 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6617647058823529</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6376811594202898</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7121212121212122</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.6323529411764706</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.7424242424242424</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6029411764705882</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.5970149253731343</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.6567164179104478</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.7205882352941176</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6716417910447762</v>
-      </c>
       <c r="J9" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.6417910447761194</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6673204831457685</v>
+        <v>0.6608435675609399</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06004751356343432</v>
+        <v>0.03317544517744235</v>
       </c>
     </row>
     <row r="10">
@@ -3348,40 +3348,40 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0.9802</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9698</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9802</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9701</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.98</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.9703000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="L10" t="n">
         <v>0.9851</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.9851</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9703000000000001</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9901</v>
-      </c>
       <c r="M10" t="n">
-        <v>0.9825900000000001</v>
+        <v>0.97754</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008499209113532578</v>
+        <v>0.006811950283631457</v>
       </c>
     </row>
     <row r="11">
@@ -3394,40 +3394,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7478260869565218</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8099173553719009</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7321428571428571</v>
+        <v>0.7563025210084034</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7394957983193275</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7719298245614035</v>
+        <v>0.8034188034188035</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8032786885245901</v>
+        <v>0.8067226890756304</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7964601769911505</v>
+        <v>0.7350427350427351</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8305084745762712</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7027027027027029</v>
+        <v>0.7899159663865546</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.7387387387387387</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7749625100996677</v>
+        <v>0.7648163778200772</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04523433425277774</v>
+        <v>0.02739923796164044</v>
       </c>
     </row>
     <row r="12">
@@ -3440,40 +3440,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8846098948611276</v>
+        <v>0.8973950402638839</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9114155400434847</v>
+        <v>0.8925678331465671</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8792342197368951</v>
+        <v>0.8862675318167641</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8790012804097309</v>
+        <v>0.8777292727463583</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8967739253346636</v>
+        <v>0.9102139385685853</v>
       </c>
       <c r="H12" t="n">
-        <v>0.906823686272841</v>
+        <v>0.9097983873029508</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9083349024038159</v>
+        <v>0.8775588430773128</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9217419511799532</v>
+        <v>0.8817733990147785</v>
       </c>
       <c r="K12" t="n">
-        <v>0.868259972000095</v>
+        <v>0.9019547688075552</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9216479180452417</v>
+        <v>0.8835082140964493</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8977843290287849</v>
+        <v>0.8918767228841207</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01904805849227669</v>
+        <v>0.01246622168931437</v>
       </c>
     </row>
     <row r="13">
@@ -3486,40 +3486,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8394712382526077</v>
+        <v>0.8551592250769102</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8772478343124566</v>
+        <v>0.8505421873386347</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8306940700808625</v>
+        <v>0.843379078250005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8284250960307298</v>
+        <v>0.832577635370695</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8551592250769102</v>
+        <v>0.8742631009934113</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8726538370159183</v>
+        <v>0.8757834068879351</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8710433272662608</v>
+        <v>0.8305285274259021</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8913307923120591</v>
+        <v>0.8349753694581281</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8125278219395867</v>
+        <v>0.8649819640086249</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8899835796387521</v>
+        <v>0.8352517223105458</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8568536821926145</v>
+        <v>0.8497442217120792</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02771980005106659</v>
+        <v>0.01723679393791913</v>
       </c>
     </row>
     <row r="14">
@@ -3532,40 +3532,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8061764705882353</v>
+        <v>0.8234323432343233</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8563606360636064</v>
+        <v>0.8160294117647059</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7939705882352941</v>
+        <v>0.8158823529411765</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7910447761194029</v>
+        <v>0.8037652028257227</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8208955223880596</v>
+        <v>0.8461596159615962</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8477941176470588</v>
+        <v>0.8454411764705883</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8011764705882353</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8606965174129353</v>
+        <v>0.8059701492537313</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7806030603060305</v>
+        <v>0.8355882352941176</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8586858685868587</v>
+        <v>0.7985074626865671</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8249560890680814</v>
+        <v>0.8191952421020765</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03062226391886147</v>
+        <v>0.01791726986134623</v>
       </c>
     </row>
     <row r="15">
@@ -3578,40 +3578,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7006904470187513</v>
+        <v>0.7268237938336418</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7603196717319639</v>
+        <v>0.7232390829218523</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6906419972829634</v>
+        <v>0.7003414954573488</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6867517069339866</v>
+        <v>0.68187670358649</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7307755645699987</v>
+        <v>0.7598696410490462</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7546019369419997</v>
+        <v>0.7658762443339443</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7655768067133514</v>
+        <v>0.6781103795838973</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7957789003935054</v>
+        <v>0.6855267192916218</v>
       </c>
       <c r="K15" t="n">
-        <v>0.646861588549168</v>
+        <v>0.7440313280417459</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7933752825298415</v>
+        <v>0.6978631577988531</v>
       </c>
       <c r="M15" t="n">
-        <v>0.732537390266553</v>
+        <v>0.7163558545898441</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04973291748725614</v>
+        <v>0.03243628002390174</v>
       </c>
     </row>
     <row r="16">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8869</v>
+        <v>0.9</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9202</v>
+        <v>0.8914</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8794999999999999</v>
+        <v>0.894</v>
       </c>
       <c r="F16" t="n">
-        <v>0.88</v>
+        <v>0.8853</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8959</v>
+        <v>0.9124</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9112</v>
+        <v>0.9078000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9009</v>
+        <v>0.8858</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9171</v>
+        <v>0.8904</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8789</v>
+        <v>0.9032</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9174</v>
+        <v>0.8839</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8988000000000002</v>
+        <v>0.89542</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01689490389963133</v>
+        <v>0.009967368983058897</v>
       </c>
     </row>
     <row r="17">
@@ -3670,40 +3670,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8061764705882353</v>
+        <v>0.8234323432343233</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8563606360636064</v>
+        <v>0.8160294117647059</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7939705882352941</v>
+        <v>0.8158823529411764</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7910447761194028</v>
+        <v>0.8037652028257227</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8208955223880596</v>
+        <v>0.8461596159615962</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8477941176470589</v>
+        <v>0.8454411764705883</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8011764705882353</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8606965174129354</v>
+        <v>0.8059701492537312</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7806030603060305</v>
+        <v>0.8355882352941176</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8586858685868587</v>
+        <v>0.7985074626865671</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8249560890680814</v>
+        <v>0.8191952421020765</v>
       </c>
       <c r="N17" t="n">
-        <v>0.03062226391886151</v>
+        <v>0.01791726986134624</v>
       </c>
     </row>
   </sheetData>
@@ -3802,40 +3802,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7390249978920995</v>
+        <v>0.6983334698394639</v>
       </c>
       <c r="D2" t="n">
-        <v>0.714063831866196</v>
+        <v>0.7206819301903971</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6770583845172271</v>
+        <v>0.701664034603904</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7497858092404736</v>
+        <v>0.7477803033209423</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6538357187755033</v>
+        <v>0.736532274664911</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7196148308514005</v>
+        <v>0.7145679483330432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7285285975222129</v>
+        <v>0.7290855093356565</v>
       </c>
       <c r="J2" t="n">
-        <v>0.750170166259904</v>
+        <v>0.6414583775652738</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6806434190549333</v>
+        <v>0.6829453796386622</v>
       </c>
       <c r="L2" t="n">
-        <v>0.698922315174072</v>
+        <v>0.6683320124113634</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7111648071154023</v>
+        <v>0.7041381239903618</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03283257987390492</v>
+        <v>0.03275947257274402</v>
       </c>
     </row>
     <row r="3">
@@ -3848,40 +3848,40 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" t="n">
+        <v>35</v>
+      </c>
+      <c r="F3" t="n">
+        <v>41</v>
+      </c>
+      <c r="G3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>38</v>
+      </c>
+      <c r="L3" t="n">
         <v>32</v>
       </c>
-      <c r="D3" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3" t="n">
-        <v>31</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="n">
-        <v>38</v>
-      </c>
-      <c r="H3" t="n">
-        <v>39</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33</v>
-      </c>
-      <c r="L3" t="n">
-        <v>31</v>
-      </c>
       <c r="M3" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="N3" t="n">
-        <v>3.478505426185218</v>
+        <v>3.472111109333277</v>
       </c>
     </row>
     <row r="4">
@@ -3894,25 +3894,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D4" t="n">
+        <v>195</v>
+      </c>
+      <c r="E4" t="n">
         <v>198</v>
       </c>
-      <c r="E4" t="n">
-        <v>199</v>
-      </c>
       <c r="F4" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G4" t="n">
         <v>201</v>
       </c>
       <c r="H4" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I4" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J4" t="n">
         <v>199</v>
@@ -3921,13 +3921,13 @@
         <v>198</v>
       </c>
       <c r="L4" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M4" t="n">
-        <v>199.3</v>
+        <v>198.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9486832980505138</v>
+        <v>1.957890020745122</v>
       </c>
     </row>
     <row r="5">
@@ -3940,22 +3940,22 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -3964,16 +3964,16 @@
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.7</v>
-      </c>
       <c r="N5" t="n">
-        <v>1.418136492412176</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="6">
@@ -3986,40 +3986,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G6" t="n">
         <v>29</v>
       </c>
       <c r="H6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L6" t="n">
         <v>35</v>
       </c>
       <c r="M6" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="N6" t="n">
-        <v>3.634709219609062</v>
+        <v>2.943920288775949</v>
       </c>
     </row>
     <row r="7">
@@ -4035,37 +4035,37 @@
         <v>0.8619402985074627</v>
       </c>
       <c r="D7" t="n">
+        <v>0.8656716417910447</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8694029850746269</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8917910447761194</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.8880597014925373</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
+        <v>0.8768656716417911</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8656716417910447</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8731343283582089</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8805970149253731</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.8582089552238806</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.8656716417910447</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8917910447761194</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8917910447761194</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8880597014925373</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8768656716417911</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8619402985074627</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8619402985074627</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.8746268656716418</v>
+        <v>0.8731343283582088</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01409374674051273</v>
+        <v>0.0111247163059691</v>
       </c>
     </row>
     <row r="8">
@@ -4078,40 +4078,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="E8" t="n">
-        <v>0.96875</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.95</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9543408248342459</v>
+        <v>0.9484422177433579</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0355355928441381</v>
+        <v>0.03457572826404099</v>
       </c>
     </row>
     <row r="9">
@@ -4124,40 +4124,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4558823529411765</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4925373134328358</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5671641791044776</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5735294117647058</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5671641791044776</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5373134328358209</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.4776119402985075</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5239936680235188</v>
+        <v>0.5255967604433076</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05280803358622591</v>
+        <v>0.04710531015204236</v>
       </c>
     </row>
     <row r="10">
@@ -4170,22 +4170,22 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.995</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.9802</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.995</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="I10" t="n">
         <v>0.995</v>
@@ -4194,16 +4194,16 @@
         <v>0.99</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9802</v>
+        <v>0.99</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9901</v>
+        <v>0.9851</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9915499999999999</v>
+        <v>0.9900100000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.007016369748270444</v>
+        <v>0.007063277489161033</v>
       </c>
     </row>
     <row r="11">
@@ -4216,40 +4216,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6336633663366337</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="E11" t="n">
-        <v>0.62</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6470588235294117</v>
+        <v>0.7387387387387387</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7238095238095238</v>
+        <v>0.7115384615384615</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7289719626168224</v>
+        <v>0.6972477064220183</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7169811320754718</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6857142857142856</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6407766990291263</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6750511146646629</v>
+        <v>0.6748735592584827</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04590564982743112</v>
+        <v>0.0394309124148399</v>
       </c>
     </row>
     <row r="12">
@@ -4262,40 +4262,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8435731890224536</v>
+        <v>0.8408466083474501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8797561488332981</v>
+        <v>0.8538956943833967</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8385403258934685</v>
+        <v>0.8548210224977202</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8495527243155327</v>
+        <v>0.8820677218043328</v>
       </c>
       <c r="G12" t="n">
-        <v>0.880488343829411</v>
+        <v>0.8766185100140322</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8807846266348149</v>
+        <v>0.8655080953866765</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8769197016235192</v>
+        <v>0.8485452919733132</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8640039774610541</v>
+        <v>0.8592414529914529</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8471279558172276</v>
+        <v>0.8690245553127405</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8441431287498435</v>
+        <v>0.8411945423330621</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8604890122180622</v>
+        <v>0.8591763495044178</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01763402125675371</v>
+        <v>0.01408121154487</v>
       </c>
     </row>
     <row r="13">
@@ -4308,40 +4308,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7743029475361329</v>
+        <v>0.7633130445160521</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8284250960307298</v>
+        <v>0.7941101152368758</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7664220183486239</v>
+        <v>0.7927300850734724</v>
       </c>
       <c r="F13" t="n">
+        <v>0.8352517223105458</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8210470085470085</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8099821670283394</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.7820547573868257</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.8282620704894486</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.8306864475088774</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.8236068451075034</v>
-      </c>
       <c r="J13" t="n">
-        <v>0.8045740802121313</v>
+        <v>0.7971866096866096</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7776631763044014</v>
+        <v>0.8144686742817584</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7707972170214734</v>
+        <v>0.7699466883527604</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7986794655946147</v>
+        <v>0.7980090872420248</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02702004055436593</v>
+        <v>0.02266086420658253</v>
       </c>
     </row>
     <row r="14">
@@ -4354,40 +4354,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7327941176470588</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7931293129312931</v>
+        <v>0.7595588235294117</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7254411764705883</v>
+        <v>0.7523529411764706</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7412935323383085</v>
+        <v>0.794588886461292</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7835820895522387</v>
+        <v>0.7778277827782778</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7867647058823529</v>
+        <v>0.7719117647058824</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7810945273631841</v>
+        <v>0.7401470588235294</v>
       </c>
       <c r="J14" t="n">
-        <v>0.763681592039801</v>
+        <v>0.7562189054726368</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7400990099009901</v>
+        <v>0.7744117647058824</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7298979897989799</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7577778053924795</v>
+        <v>0.7578058180932442</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02659522136605484</v>
+        <v>0.02292091574024277</v>
       </c>
     </row>
     <row r="15">
@@ -4400,40 +4400,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6165673894208752</v>
+        <v>0.6094018459640024</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6818463983417472</v>
+        <v>0.6213787285188639</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6050645394989882</v>
+        <v>0.6366503302211519</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6201533930747798</v>
+        <v>0.7086284318448195</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7040256912308268</v>
+        <v>0.6862740935938764</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7077422197213914</v>
+        <v>0.6573892399647784</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6903475238269052</v>
+        <v>0.6279561738836363</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6546203795655057</v>
+        <v>0.6432351154526731</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5997374452619744</v>
+        <v>0.6702005152565572</v>
       </c>
       <c r="L15" t="n">
-        <v>0.602867567805298</v>
+        <v>0.5945800572778817</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6482972547748291</v>
+        <v>0.645569453197824</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04430068357992801</v>
+        <v>0.03538381940395686</v>
       </c>
     </row>
     <row r="16">
@@ -4446,40 +4446,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8468</v>
+        <v>0.8452</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8839</v>
+        <v>0.8628</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8431999999999999</v>
+        <v>0.8571</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8541</v>
+        <v>0.8761</v>
       </c>
       <c r="G16" t="n">
         <v>0.8739</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8734</v>
+        <v>0.8678</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8734</v>
+        <v>0.8504</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8652</v>
+        <v>0.8615</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8571</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8511</v>
+        <v>0.8498</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8622099999999999</v>
+        <v>0.8613000000000002</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01366523976290859</v>
+        <v>0.01054440346555672</v>
       </c>
     </row>
     <row r="17">
@@ -4492,40 +4492,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7327941176470589</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7931293129312931</v>
+        <v>0.7595588235294117</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7254411764705881</v>
+        <v>0.7523529411764706</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7412935323383084</v>
+        <v>0.7945888864612919</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7835820895522387</v>
+        <v>0.7778277827782778</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7867647058823529</v>
+        <v>0.7719117647058823</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7810945273631841</v>
+        <v>0.7401470588235295</v>
       </c>
       <c r="J17" t="n">
-        <v>0.763681592039801</v>
+        <v>0.7562189054726368</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7400990099009901</v>
+        <v>0.7744117647058824</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7298979897989799</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7577778053924795</v>
+        <v>0.7578058180932442</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02659522136605486</v>
+        <v>0.02292091574024274</v>
       </c>
     </row>
   </sheetData>
